--- a/biology/Botanique/Limonium_virgatum/Limonium_virgatum.xlsx
+++ b/biology/Botanique/Limonium_virgatum/Limonium_virgatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limonium virgatum, le Statice raide, est une espèce de plantes méditerranéennes halophile de la famille des Plumbaginaceae.
-La floraison a lieu de mai à septembre[3].
+La floraison a lieu de mai à septembre.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (5 octobre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (5 octobre 2019) :
 Limonium virgatum subsp. fontqueri (Pau) O. Bolòs, Vigo, Masalles &amp; Ninot
 Limonium virgatum subsp. pseudodictyocladum (L. Llorens) O. Bolòs, Vigo, Masalles &amp; Ninot</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Limonium virgatum est présent dans les pelouses salées sablo-limoneuses et les rochers littoraux.
 </t>
@@ -575,7 +591,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Limonium virgatum est présent au tour du bassin méditerranéen (Sténo-méditerranéen).
 </t>
